--- a/docs/satshakit_BOM.xlsx
+++ b/docs/satshakit_BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" state="visible" r:id="rId2"/>
@@ -145,7 +145,7 @@
     <t>M20-9990246</t>
   </si>
   <si>
-    <t>Total cost</t>
+    <t>Total cost per core</t>
   </si>
 </sst>
 </file>
@@ -288,21 +288,21 @@
   <dimension ref="A1:J65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.9642857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.9897959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.9897959183673"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.48469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.8520408163265"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.6020408163265"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.7448979591837"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
